--- a/Solutions/TspResult_200x200.xlsx
+++ b/Solutions/TspResult_200x200.xlsx
@@ -98,972 +98,972 @@
     </row>
     <row r="6">
       <c t="n" r="A6">
-        <v>157</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c t="n" r="A7">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c t="n" r="A8">
-        <v>170</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c t="n" r="A9">
-        <v>148</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c t="n" r="A10">
-        <v>126</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11">
       <c t="n" r="A11">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c t="n" r="A12">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c t="n" r="A13">
-        <v>117</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c t="n" r="A14">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15">
       <c t="n" r="A15">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16">
       <c t="n" r="A16">
-        <v>128</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
       <c t="n" r="A17">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c t="n" r="A18">
-        <v>91</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19">
       <c t="n" r="A19">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20">
       <c t="n" r="A20">
-        <v>115</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c t="n" r="A21">
-        <v>37</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22">
       <c t="n" r="A22">
-        <v>171</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c t="n" r="A23">
-        <v>142</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24">
       <c t="n" r="A24">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c t="n" r="A25">
-        <v>141</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c t="n" r="A26">
-        <v>139</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27">
       <c t="n" r="A27">
-        <v>1</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28">
       <c t="n" r="A28">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29">
       <c t="n" r="A29">
-        <v>184</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30">
       <c t="n" r="A30">
-        <v>164</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c t="n" r="A31">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32">
       <c t="n" r="A32">
-        <v>56</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
       <c t="n" r="A33">
-        <v>120</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
       <c t="n" r="A34">
-        <v>96</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
       <c t="n" r="A35">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36">
       <c t="n" r="A36">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37">
       <c t="n" r="A37">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c t="n" r="A38">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39">
       <c t="n" r="A39">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40">
       <c t="n" r="A40">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41">
       <c t="n" r="A41">
-        <v>108</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c t="n" r="A42">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
       <c t="n" r="A43">
-        <v>55</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44">
       <c t="n" r="A44">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c t="n" r="A45">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46">
       <c t="n" r="A46">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
       <c t="n" r="A47">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48">
       <c t="n" r="A48">
-        <v>187</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c t="n" r="A49">
-        <v>147</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50">
       <c t="n" r="A50">
-        <v>124</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51">
       <c t="n" r="A51">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52">
       <c t="n" r="A52">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53">
       <c t="n" r="A53">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c t="n" r="A54">
-        <v>25</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55">
       <c t="n" r="A55">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56">
       <c t="n" r="A56">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57">
       <c t="n" r="A57">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58">
       <c t="n" r="A58">
-        <v>61</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59">
       <c t="n" r="A59">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c t="n" r="A60">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61">
       <c t="n" r="A61">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62">
       <c t="n" r="A62">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63">
       <c t="n" r="A63">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64">
       <c t="n" r="A64">
-        <v>122</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65">
       <c t="n" r="A65">
-        <v>149</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66">
       <c t="n" r="A66">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67">
       <c t="n" r="A67">
-        <v>54</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68">
       <c t="n" r="A68">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69">
       <c t="n" r="A69">
-        <v>114</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c t="n" r="A70">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71">
       <c t="n" r="A71">
-        <v>80</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72">
       <c t="n" r="A72">
-        <v>135</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73">
       <c t="n" r="A73">
-        <v>196</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74">
       <c t="n" r="A74">
-        <v>3</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75">
       <c t="n" r="A75">
-        <v>178</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76">
       <c t="n" r="A76">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77">
       <c t="n" r="A77">
-        <v>46</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78">
       <c t="n" r="A78">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79">
       <c t="n" r="A79">
-        <v>42</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80">
       <c t="n" r="A80">
-        <v>35</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81">
       <c t="n" r="A81">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82">
       <c t="n" r="A82">
-        <v>86</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83">
       <c t="n" r="A83">
-        <v>60</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84">
       <c t="n" r="A84">
-        <v>134</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85">
       <c t="n" r="A85">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86">
       <c t="n" r="A86">
-        <v>44</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87">
       <c t="n" r="A87">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88">
       <c t="n" r="A88">
-        <v>189</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89">
       <c t="n" r="A89">
-        <v>175</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90">
       <c t="n" r="A90">
-        <v>63</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91">
       <c t="n" r="A91">
-        <v>34</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92">
       <c t="n" r="A92">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93">
       <c t="n" r="A93">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
       <c t="n" r="A94">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
       <c t="n" r="A95">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96">
       <c t="n" r="A96">
-        <v>146</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97">
       <c t="n" r="A97">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98">
       <c t="n" r="A98">
-        <v>107</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99">
       <c t="n" r="A99">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100">
       <c t="n" r="A100">
-        <v>33</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101">
       <c t="n" r="A101">
-        <v>143</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
       <c t="n" r="A102">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c t="n" r="A103">
-        <v>102</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104">
       <c t="n" r="A104">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105">
       <c t="n" r="A105">
-        <v>140</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106">
       <c t="n" r="A106">
-        <v>31</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107">
       <c t="n" r="A107">
-        <v>131</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108">
       <c t="n" r="A108">
-        <v>18</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109">
       <c t="n" r="A109">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110">
       <c t="n" r="A110">
-        <v>27</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111">
       <c t="n" r="A111">
-        <v>133</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112">
       <c t="n" r="A112">
-        <v>199</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113">
       <c t="n" r="A113">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114">
       <c t="n" r="A114">
-        <v>125</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115">
       <c t="n" r="A115">
-        <v>15</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116">
       <c t="n" r="A116">
-        <v>75</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117">
       <c t="n" r="A117">
-        <v>71</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118">
       <c t="n" r="A118">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119">
       <c t="n" r="A119">
-        <v>10</v>
+        <v>198</v>
       </c>
     </row>
     <row r="120">
       <c t="n" r="A120">
-        <v>127</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121">
       <c t="n" r="A121">
-        <v>23</v>
+        <v>64</v>
       </c>
     </row>
     <row r="122">
       <c t="n" r="A122">
-        <v>177</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123">
       <c t="n" r="A123">
-        <v>81</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124">
       <c t="n" r="A124">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="125">
       <c t="n" r="A125">
-        <v>181</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126">
       <c t="n" r="A126">
-        <v>150</v>
+        <v>93</v>
       </c>
     </row>
     <row r="127">
       <c t="n" r="A127">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="128">
       <c t="n" r="A128">
-        <v>119</v>
+        <v>168</v>
       </c>
     </row>
     <row r="129">
       <c t="n" r="A129">
-        <v>67</v>
+        <v>179</v>
       </c>
     </row>
     <row r="130">
       <c t="n" r="A130">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131">
       <c t="n" r="A131">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="132">
       <c t="n" r="A132">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133">
       <c t="n" r="A133">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134">
       <c t="n" r="A134">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="135">
       <c t="n" r="A135">
-        <v>163</v>
+        <v>188</v>
       </c>
     </row>
     <row r="136">
       <c t="n" r="A136">
-        <v>2</v>
+        <v>123</v>
       </c>
     </row>
     <row r="137">
       <c t="n" r="A137">
-        <v>101</v>
+        <v>43</v>
       </c>
     </row>
     <row r="138">
       <c t="n" r="A138">
-        <v>194</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139">
       <c t="n" r="A139">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140">
       <c t="n" r="A140">
-        <v>53</v>
+        <v>131</v>
       </c>
     </row>
     <row r="141">
       <c t="n" r="A141">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142">
       <c t="n" r="A142">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="143">
       <c t="n" r="A143">
-        <v>183</v>
+        <v>128</v>
       </c>
     </row>
     <row r="144">
       <c t="n" r="A144">
-        <v>192</v>
+        <v>30</v>
       </c>
     </row>
     <row r="145">
       <c t="n" r="A145">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="146">
       <c t="n" r="A146">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147">
       <c t="n" r="A147">
-        <v>156</v>
+        <v>91</v>
       </c>
     </row>
     <row r="148">
       <c t="n" r="A148">
-        <v>22</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149">
       <c t="n" r="A149">
-        <v>104</v>
+        <v>199</v>
       </c>
     </row>
     <row r="150">
       <c t="n" r="A150">
-        <v>197</v>
+        <v>76</v>
       </c>
     </row>
     <row r="151">
       <c t="n" r="A151">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152">
       <c t="n" r="A152">
-        <v>118</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153">
       <c t="n" r="A153">
-        <v>77</v>
+        <v>132</v>
       </c>
     </row>
     <row r="154">
       <c t="n" r="A154">
-        <v>13</v>
+        <v>107</v>
       </c>
     </row>
     <row r="155">
       <c t="n" r="A155">
-        <v>185</v>
+        <v>26</v>
       </c>
     </row>
     <row r="156">
       <c t="n" r="A156">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157">
       <c t="n" r="A157">
-        <v>121</v>
+        <v>195</v>
       </c>
     </row>
     <row r="158">
       <c t="n" r="A158">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="159">
       <c t="n" r="A159">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="160">
       <c t="n" r="A160">
-        <v>5</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161">
       <c t="n" r="A161">
-        <v>172</v>
+        <v>62</v>
       </c>
     </row>
     <row r="162">
       <c t="n" r="A162">
-        <v>152</v>
+        <v>113</v>
       </c>
     </row>
     <row r="163">
       <c t="n" r="A163">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="164">
       <c t="n" r="A164">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="165">
       <c t="n" r="A165">
-        <v>161</v>
+        <v>37</v>
       </c>
     </row>
     <row r="166">
       <c t="n" r="A166">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167">
       <c t="n" r="A167">
-        <v>145</v>
+        <v>52</v>
       </c>
     </row>
     <row r="168">
       <c t="n" r="A168">
-        <v>97</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169">
       <c t="n" r="A169">
-        <v>66</v>
+        <v>147</v>
       </c>
     </row>
     <row r="170">
       <c t="n" r="A170">
-        <v>167</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171">
       <c t="n" r="A171">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="172">
       <c t="n" r="A172">
-        <v>92</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173">
       <c t="n" r="A173">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="174">
       <c t="n" r="A174">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="175">
       <c t="n" r="A175">
-        <v>137</v>
+        <v>167</v>
       </c>
     </row>
     <row r="176">
       <c t="n" r="A176">
-        <v>28</v>
+        <v>106</v>
       </c>
     </row>
     <row r="177">
       <c t="n" r="A177">
-        <v>179</v>
+        <v>92</v>
       </c>
     </row>
     <row r="178">
       <c t="n" r="A178">
-        <v>168</v>
+        <v>74</v>
       </c>
     </row>
     <row r="179">
       <c t="n" r="A179">
-        <v>88</v>
+        <v>42</v>
       </c>
     </row>
     <row r="180">
       <c t="n" r="A180">
-        <v>93</v>
+        <v>35</v>
       </c>
     </row>
     <row r="181">
       <c t="n" r="A181">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="182">
       <c t="n" r="A182">
-        <v>174</v>
+        <v>86</v>
       </c>
     </row>
     <row r="183">
       <c t="n" r="A183">
-        <v>193</v>
+        <v>60</v>
       </c>
     </row>
     <row r="184">
       <c t="n" r="A184">
-        <v>8</v>
+        <v>134</v>
       </c>
     </row>
     <row r="185">
       <c t="n" r="A185">
-        <v>39</v>
+        <v>110</v>
       </c>
     </row>
     <row r="186">
       <c t="n" r="A186">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="187">
       <c t="n" r="A187">
-        <v>176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c t="n" r="A188">
-        <v>62</v>
+        <v>166</v>
       </c>
     </row>
     <row r="189">
       <c t="n" r="A189">
-        <v>113</v>
+        <v>139</v>
       </c>
     </row>
     <row r="190">
       <c t="n" r="A190">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="191">
       <c t="n" r="A191">
-        <v>151</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192">
       <c t="n" r="A192">
-        <v>89</v>
+        <v>142</v>
       </c>
     </row>
     <row r="193">
       <c t="n" r="A193">
-        <v>198</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194">
       <c t="n" r="A194">
-        <v>159</v>
+        <v>185</v>
       </c>
     </row>
     <row r="195">
       <c t="n" r="A195">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="196">
       <c t="n" r="A196">
-        <v>109</v>
+        <v>68</v>
       </c>
     </row>
     <row r="197">
       <c t="n" r="A197">
-        <v>72</v>
+        <v>119</v>
       </c>
     </row>
     <row r="198">
       <c t="n" r="A198">
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
     <row r="199">
       <c t="n" r="A199">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="200">
@@ -1144,1217 +1144,1217 @@
         <v>11</v>
       </c>
       <c t="n" r="B6">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c t="n" r="C6">
-        <v>0.0168</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="7">
       <c t="n" r="A7">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c t="n" r="B7">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c t="n" r="C7">
-        <v>0.0122</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="8">
       <c t="n" r="A8">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c t="n" r="B8">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c t="n" r="C8">
-        <v>0.0123</v>
+        <v>0.0334</v>
       </c>
     </row>
     <row r="9">
       <c t="n" r="A9">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c t="n" r="B9">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c t="n" r="C9">
-        <v>0.0326</v>
+        <v>0.0172</v>
       </c>
     </row>
     <row r="10">
       <c t="n" r="A10">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c t="n" r="B10">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c t="n" r="C10">
-        <v>0.0097</v>
+        <v>0.0053</v>
       </c>
     </row>
     <row r="11">
       <c t="n" r="A11">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c t="n" r="B11">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c t="n" r="C11">
-        <v>0.0342</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="12">
       <c t="n" r="A12">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c t="n" r="B12">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c t="n" r="C12">
-        <v>0.0128</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="13">
       <c t="n" r="A13">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c t="n" r="B13">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c t="n" r="C13">
-        <v>0.0262</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="14">
       <c t="n" r="A14">
+        <v>144</v>
+      </c>
+      <c t="n" r="B14">
         <v>117</v>
       </c>
-      <c t="n" r="B14">
-        <v>94</v>
-      </c>
       <c t="n" r="C14">
-        <v>0.0348</v>
+        <v>0.0322</v>
       </c>
     </row>
     <row r="15">
       <c t="n" r="A15">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c t="n" r="B15">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c t="n" r="C15">
-        <v>0.0203</v>
+        <v>0.0383</v>
       </c>
     </row>
     <row r="16">
       <c t="n" r="A16">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c t="n" r="B16">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c t="n" r="C16">
-        <v>0.0244</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="17">
       <c t="n" r="A17">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c t="n" r="B17">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c t="n" r="C17">
-        <v>0.0122</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="18">
       <c t="n" r="A18">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c t="n" r="B18">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c t="n" r="C18">
-        <v>0.0485</v>
+        <v>0.0141</v>
       </c>
     </row>
     <row r="19">
       <c t="n" r="A19">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c t="n" r="B19">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c t="n" r="C19">
-        <v>0.0085</v>
+        <v>0.0142</v>
       </c>
     </row>
     <row r="20">
       <c t="n" r="A20">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c t="n" r="B20">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c t="n" r="C20">
-        <v>0.0036</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="21">
       <c t="n" r="A21">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c t="n" r="B21">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c t="n" r="C21">
-        <v>0.0155</v>
+        <v>0.0179</v>
       </c>
     </row>
     <row r="22">
       <c t="n" r="A22">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c t="n" r="B22">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c t="n" r="C22">
-        <v>0.0124</v>
+        <v>0.0106</v>
       </c>
     </row>
     <row r="23">
       <c t="n" r="A23">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c t="n" r="B23">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c t="n" r="C23">
-        <v>0.0045</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="24">
       <c t="n" r="A24">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c t="n" r="B24">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c t="n" r="C24">
-        <v>0.0259</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="25">
       <c t="n" r="A25">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c t="n" r="B25">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c t="n" r="C25">
-        <v>0.0008</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="26">
       <c t="n" r="A26">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c t="n" r="B26">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c t="n" r="C26">
-        <v>0.0077</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="27">
       <c t="n" r="A27">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c t="n" r="B27">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c t="n" r="C27">
-        <v>0.0006</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="28">
       <c t="n" r="A28">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c t="n" r="B28">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c t="n" r="C28">
-        <v>0.0068</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="29">
       <c t="n" r="A29">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c t="n" r="B29">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c t="n" r="C29">
-        <v>0.0197</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="30">
       <c t="n" r="A30">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c t="n" r="B30">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c t="n" r="C30">
-        <v>0.0075</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="31">
       <c t="n" r="A31">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c t="n" r="B31">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c t="n" r="C31">
-        <v>0.0142</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="32">
       <c t="n" r="A32">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c t="n" r="B32">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c t="n" r="C32">
-        <v>0.0024</v>
+        <v>0.0154</v>
       </c>
     </row>
     <row r="33">
       <c t="n" r="A33">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c t="n" r="B33">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c t="n" r="C33">
-        <v>0.0086</v>
+        <v>0.0069</v>
       </c>
     </row>
     <row r="34">
       <c t="n" r="A34">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c t="n" r="B34">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c t="n" r="C34">
-        <v>0.0078</v>
+        <v>0.0279</v>
       </c>
     </row>
     <row r="35">
       <c t="n" r="A35">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c t="n" r="B35">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c t="n" r="C35">
-        <v>0.0005</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="36">
       <c t="n" r="A36">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c t="n" r="B36">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c t="n" r="C36">
-        <v>0.0298</v>
+        <v>0.0395</v>
       </c>
     </row>
     <row r="37">
       <c t="n" r="A37">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c t="n" r="B37">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c t="n" r="C37">
-        <v>0.0135</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="38">
       <c t="n" r="A38">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c t="n" r="B38">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="n" r="C38">
-        <v>0.004</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="39">
       <c t="n" r="A39">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="n" r="B39">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c t="n" r="C39">
-        <v>0.0404</v>
+        <v>0.0079</v>
       </c>
     </row>
     <row r="40">
       <c t="n" r="A40">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c t="n" r="B40">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c t="n" r="C40">
-        <v>0.019</v>
+        <v>0.0151</v>
       </c>
     </row>
     <row r="41">
       <c t="n" r="A41">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c t="n" r="B41">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c t="n" r="C41">
-        <v>0.0091</v>
+        <v>0.009</v>
       </c>
     </row>
     <row r="42">
       <c t="n" r="A42">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c t="n" r="B42">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c t="n" r="C42">
-        <v>0.0079</v>
+        <v>0.0234</v>
       </c>
     </row>
     <row r="43">
       <c t="n" r="A43">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c t="n" r="B43">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c t="n" r="C43">
-        <v>0.0151</v>
+        <v>0.0282</v>
       </c>
     </row>
     <row r="44">
       <c t="n" r="A44">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c t="n" r="B44">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c t="n" r="C44">
-        <v>0.009</v>
+        <v>0.0122</v>
       </c>
     </row>
     <row r="45">
       <c t="n" r="A45">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c t="n" r="B45">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c t="n" r="C45">
-        <v>0.0234</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="46">
       <c t="n" r="A46">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c t="n" r="B46">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c t="n" r="C46">
-        <v>0.0295</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="47">
       <c t="n" r="A47">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c t="n" r="B47">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c t="n" r="C47">
-        <v>0.036</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="48">
       <c t="n" r="A48">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c t="n" r="B48">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c t="n" r="C48">
-        <v>0.011</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="49">
       <c t="n" r="A49">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c t="n" r="B49">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c t="n" r="C49">
-        <v>0.0092</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="50">
       <c t="n" r="A50">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c t="n" r="B50">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c t="n" r="C50">
-        <v>0.0141</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="51">
       <c t="n" r="A51">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c t="n" r="B51">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c t="n" r="C51">
-        <v>0.0162</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="52">
       <c t="n" r="A52">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c t="n" r="B52">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c t="n" r="C52">
-        <v>0.0091</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="53">
       <c t="n" r="A53">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c t="n" r="B53">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c t="n" r="C53">
-        <v>0.0133</v>
+        <v>0.0059</v>
       </c>
     </row>
     <row r="54">
       <c t="n" r="A54">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c t="n" r="B54">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c t="n" r="C54">
-        <v>0.0017</v>
+        <v>0.0129</v>
       </c>
     </row>
     <row r="55">
       <c t="n" r="A55">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c t="n" r="B55">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c t="n" r="C55">
-        <v>0.0107</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="56">
       <c t="n" r="A56">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c t="n" r="B56">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="n" r="C56">
-        <v>0.0022</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="57">
       <c t="n" r="A57">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="n" r="B57">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c t="n" r="C57">
-        <v>0.0313</v>
+        <v>0.0139</v>
       </c>
     </row>
     <row r="58">
       <c t="n" r="A58">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c t="n" r="B58">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c t="n" r="C58">
-        <v>0.0029</v>
+        <v>0.0095</v>
       </c>
     </row>
     <row r="59">
       <c t="n" r="A59">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c t="n" r="B59">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c t="n" r="C59">
-        <v>0.029</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="60">
       <c t="n" r="A60">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c t="n" r="B60">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c t="n" r="C60">
-        <v>0.0097</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="61">
       <c t="n" r="A61">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c t="n" r="B61">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="n" r="C61">
-        <v>0.0162</v>
+        <v>0.0088</v>
       </c>
     </row>
     <row r="62">
       <c t="n" r="A62">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="n" r="B62">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c t="n" r="C62">
-        <v>0.0017</v>
+        <v>0.0046</v>
       </c>
     </row>
     <row r="63">
       <c t="n" r="A63">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c t="n" r="B63">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c t="n" r="C63">
-        <v>0.0175</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="64">
       <c t="n" r="A64">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c t="n" r="B64">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c t="n" r="C64">
-        <v>0.0105</v>
+        <v>0.0079</v>
       </c>
     </row>
     <row r="65">
       <c t="n" r="A65">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c t="n" r="B65">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c t="n" r="C65">
-        <v>0.0018</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="66">
       <c t="n" r="A66">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c t="n" r="B66">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="n" r="C66">
-        <v>0.0022</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="67">
       <c t="n" r="A67">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="n" r="B67">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c t="n" r="C67">
-        <v>0.0289</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="68">
       <c t="n" r="A68">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c t="n" r="B68">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c t="n" r="C68">
-        <v>0.0279</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="69">
       <c t="n" r="A69">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c t="n" r="B69">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c t="n" r="C69">
-        <v>0.0069</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="70">
       <c t="n" r="A70">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c t="n" r="B70">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="n" r="C70">
-        <v>0.0154</v>
+        <v>0.0113</v>
       </c>
     </row>
     <row r="71">
       <c t="n" r="A71">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="n" r="B71">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c t="n" r="C71">
-        <v>0.0031</v>
+        <v>0.0354</v>
       </c>
     </row>
     <row r="72">
       <c t="n" r="A72">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c t="n" r="B72">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c t="n" r="C72">
-        <v>0.0151</v>
+        <v>0.0305</v>
       </c>
     </row>
     <row r="73">
       <c t="n" r="A73">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c t="n" r="B73">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c t="n" r="C73">
-        <v>0.01</v>
+        <v>0.0152</v>
       </c>
     </row>
     <row r="74">
       <c t="n" r="A74">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c t="n" r="B74">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c t="n" r="C74">
-        <v>0.0059</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="75">
       <c t="n" r="A75">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c t="n" r="B75">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c t="n" r="C75">
-        <v>0.0129</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="76">
       <c t="n" r="A76">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c t="n" r="B76">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c t="n" r="C76">
-        <v>0.0054</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="77">
       <c t="n" r="A77">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c t="n" r="B77">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c t="n" r="C77">
-        <v>0.0109</v>
+        <v>0.0201</v>
       </c>
     </row>
     <row r="78">
       <c t="n" r="A78">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c t="n" r="B78">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c t="n" r="C78">
-        <v>0.0139</v>
+        <v>0.0203</v>
       </c>
     </row>
     <row r="79">
       <c t="n" r="A79">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c t="n" r="B79">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c t="n" r="C79">
-        <v>0.0094</v>
+        <v>0.0181</v>
       </c>
     </row>
     <row r="80">
       <c t="n" r="A80">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c t="n" r="B80">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c t="n" r="C80">
-        <v>0.0015</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="81">
       <c t="n" r="A81">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c t="n" r="B81">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c t="n" r="C81">
-        <v>0.0257</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="82">
       <c t="n" r="A82">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c t="n" r="B82">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c t="n" r="C82">
-        <v>0.006</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="83">
       <c t="n" r="A83">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c t="n" r="B83">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c t="n" r="C83">
-        <v>0.0074</v>
+        <v>0.0319</v>
       </c>
     </row>
     <row r="84">
       <c t="n" r="A84">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c t="n" r="B84">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c t="n" r="C84">
-        <v>0.0014</v>
+        <v>0.0147</v>
       </c>
     </row>
     <row r="85">
       <c t="n" r="A85">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c t="n" r="B85">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c t="n" r="C85">
-        <v>0.0145</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="86">
       <c t="n" r="A86">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c t="n" r="B86">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c t="n" r="C86">
-        <v>0.0044</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="87">
       <c t="n" r="A87">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c t="n" r="B87">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c t="n" r="C87">
-        <v>0.0442</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="88">
       <c t="n" r="A88">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c t="n" r="B88">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c t="n" r="C88">
-        <v>0.0091</v>
+        <v>0.0297</v>
       </c>
     </row>
     <row r="89">
       <c t="n" r="A89">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c t="n" r="B89">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c t="n" r="C89">
-        <v>0.0086</v>
+        <v>0.0321</v>
       </c>
     </row>
     <row r="90">
       <c t="n" r="A90">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c t="n" r="B90">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c t="n" r="C90">
-        <v>0.0065</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="91">
       <c t="n" r="A91">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c t="n" r="B91">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c t="n" r="C91">
-        <v>0.0229</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="92">
       <c t="n" r="A92">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c t="n" r="B92">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c t="n" r="C92">
-        <v>0.0171</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="93">
       <c t="n" r="A93">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c t="n" r="B93">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c t="n" r="C93">
-        <v>0.0015</v>
+        <v>0.0166</v>
       </c>
     </row>
     <row r="94">
       <c t="n" r="A94">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c t="n" r="B94">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c t="n" r="C94">
-        <v>0.0106</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="95">
       <c t="n" r="A95">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c t="n" r="B95">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c t="n" r="C95">
-        <v>0.0121</v>
+        <v>0.0234</v>
       </c>
     </row>
     <row r="96">
       <c t="n" r="A96">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c t="n" r="B96">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c t="n" r="C96">
-        <v>0.0087</v>
+        <v>0.0029</v>
       </c>
     </row>
     <row r="97">
       <c t="n" r="A97">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c t="n" r="B97">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c t="n" r="C97">
-        <v>0.0041</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="98">
       <c t="n" r="A98">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c t="n" r="B98">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c t="n" r="C98">
-        <v>0.0244</v>
+        <v>0.0234</v>
       </c>
     </row>
     <row r="99">
       <c t="n" r="A99">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c t="n" r="B99">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="n" r="C99">
-        <v>0.0085</v>
+        <v>0.0223</v>
       </c>
     </row>
     <row r="100">
       <c t="n" r="A100">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="n" r="B100">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c t="n" r="C100">
-        <v>0.0028</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="101">
       <c t="n" r="A101">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c t="n" r="B101">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c t="n" r="C101">
-        <v>0.0297</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="102">
       <c t="n" r="A102">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c t="n" r="B102">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c t="n" r="C102">
-        <v>0.0144</v>
+        <v>0.0189</v>
       </c>
     </row>
     <row r="103">
       <c t="n" r="A103">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c t="n" r="B103">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c t="n" r="C103">
-        <v>0.0027</v>
+        <v>0.0094</v>
       </c>
     </row>
     <row r="104">
       <c t="n" r="A104">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c t="n" r="B104">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c t="n" r="C104">
-        <v>0.0116</v>
+        <v>0.0227</v>
       </c>
     </row>
     <row r="105">
       <c t="n" r="A105">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c t="n" r="B105">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c t="n" r="C105">
-        <v>0.0228</v>
+        <v>0.0307</v>
       </c>
     </row>
     <row r="106">
       <c t="n" r="A106">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c t="n" r="B106">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c t="n" r="C106">
-        <v>0.0127</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="107">
       <c t="n" r="A107">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c t="n" r="B107">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c t="n" r="C107">
-        <v>0.0163</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="108">
       <c t="n" r="A108">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c t="n" r="B108">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c t="n" r="C108">
-        <v>0.0095</v>
+        <v>0.0142</v>
       </c>
     </row>
     <row r="109">
       <c t="n" r="A109">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c t="n" r="B109">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c t="n" r="C109">
-        <v>0.0034</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="110">
       <c t="n" r="A110">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c t="n" r="B110">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c t="n" r="C110">
-        <v>0.0266</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="111">
       <c t="n" r="A111">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c t="n" r="B111">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c t="n" r="C111">
-        <v>0.0048</v>
+        <v>0.0104</v>
       </c>
     </row>
     <row r="112">
       <c t="n" r="A112">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c t="n" r="B112">
-        <v>199</v>
+        <v>90</v>
       </c>
       <c t="n" r="C112">
-        <v>0.0197</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="113">
       <c t="n" r="A113">
-        <v>199</v>
+        <v>90</v>
       </c>
       <c t="n" r="B113">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c t="n" r="C113">
-        <v>0.0232</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="114">
       <c t="n" r="A114">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c t="n" r="B114">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c t="n" r="C114">
-        <v>0.0166</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="115">
       <c t="n" r="A115">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c t="n" r="B115">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c t="n" r="C115">
-        <v>0.0004</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="116">
       <c t="n" r="A116">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c t="n" r="B116">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c t="n" r="C116">
         <v>0.0091</v>
@@ -2362,120 +2362,120 @@
     </row>
     <row r="117">
       <c t="n" r="A117">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c t="n" r="B117">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c t="n" r="C117">
-        <v>0.0011</v>
+        <v>0.0115</v>
       </c>
     </row>
     <row r="118">
       <c t="n" r="A118">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c t="n" r="B118">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c t="n" r="C118">
-        <v>0.0166</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="119">
       <c t="n" r="A119">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c t="n" r="B119">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c t="n" r="C119">
-        <v>0.0273</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="120">
       <c t="n" r="A120">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c t="n" r="B120">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c t="n" r="C120">
-        <v>0.0356</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="121">
       <c t="n" r="A121">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c t="n" r="B121">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c t="n" r="C121">
-        <v>0.0123</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="122">
       <c t="n" r="A122">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c t="n" r="B122">
-        <v>177</v>
+        <v>56</v>
       </c>
       <c t="n" r="C122">
-        <v>0.0039</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="123">
       <c t="n" r="A123">
-        <v>177</v>
+        <v>56</v>
       </c>
       <c t="n" r="B123">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c t="n" r="C123">
-        <v>0.017</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="124">
       <c t="n" r="A124">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c t="n" r="B124">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c t="n" r="C124">
-        <v>0.024</v>
+        <v>0.0242</v>
       </c>
     </row>
     <row r="125">
       <c t="n" r="A125">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c t="n" r="B125">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c t="n" r="C125">
-        <v>0.0017</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="126">
       <c t="n" r="A126">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c t="n" r="B126">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c t="n" r="C126">
-        <v>0.0142</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="127">
       <c t="n" r="A127">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c t="n" r="B127">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c t="n" r="C127">
         <v>0.0106</v>
@@ -2483,805 +2483,805 @@
     </row>
     <row r="128">
       <c t="n" r="A128">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c t="n" r="B128">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c t="n" r="C128">
-        <v>0.0036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c t="n" r="A129">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c t="n" r="B129">
-        <v>67</v>
+        <v>179</v>
       </c>
       <c t="n" r="C129">
-        <v>0.0036</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="130">
       <c t="n" r="A130">
-        <v>67</v>
+        <v>179</v>
       </c>
       <c t="n" r="B130">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c t="n" r="C130">
-        <v>0.0102</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="131">
       <c t="n" r="A131">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c t="n" r="B131">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c t="n" r="C131">
-        <v>0.0134</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="132">
       <c t="n" r="A132">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c t="n" r="B132">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c t="n" r="C132">
-        <v>0.012</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="133">
       <c t="n" r="A133">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c t="n" r="B133">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c t="n" r="C133">
-        <v>0.0009</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="134">
       <c t="n" r="A134">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c t="n" r="B134">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c t="n" r="C134">
-        <v>0.0294</v>
+        <v>0.0085</v>
       </c>
     </row>
     <row r="135">
       <c t="n" r="A135">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c t="n" r="B135">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c t="n" r="C135">
-        <v>0.0227</v>
+        <v>0.0127</v>
       </c>
     </row>
     <row r="136">
       <c t="n" r="A136">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c t="n" r="B136">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c t="n" r="C136">
-        <v>0.0094</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="137">
       <c t="n" r="A137">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c t="n" r="B137">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c t="n" r="C137">
-        <v>0.0447</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="138">
       <c t="n" r="A138">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c t="n" r="B138">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c t="n" r="C138">
-        <v>0.0063</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="139">
       <c t="n" r="A139">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c t="n" r="B139">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c t="n" r="C139">
-        <v>0.0042</v>
+        <v>0.0191</v>
       </c>
     </row>
     <row r="140">
       <c t="n" r="A140">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c t="n" r="B140">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c t="n" r="C140">
-        <v>0.0275</v>
+        <v>0.0163</v>
       </c>
     </row>
     <row r="141">
       <c t="n" r="A141">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c t="n" r="B141">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c t="n" r="C141">
-        <v>0.0191</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="142">
       <c t="n" r="A142">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c t="n" r="B142">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c t="n" r="C142">
-        <v>0.0354</v>
+        <v>0.0045</v>
       </c>
     </row>
     <row r="143">
       <c t="n" r="A143">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c t="n" r="B143">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c t="n" r="C143">
-        <v>0.0305</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="144">
       <c t="n" r="A144">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c t="n" r="B144">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c t="n" r="C144">
-        <v>0.0043</v>
+        <v>0.0122</v>
       </c>
     </row>
     <row r="145">
       <c t="n" r="A145">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c t="n" r="B145">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c t="n" r="C145">
-        <v>0.004</v>
+        <v>0.0424</v>
       </c>
     </row>
     <row r="146">
       <c t="n" r="A146">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c t="n" r="B146">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c t="n" r="C146">
-        <v>0.0164</v>
+        <v>0.0036</v>
       </c>
     </row>
     <row r="147">
       <c t="n" r="A147">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c t="n" r="B147">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c t="n" r="C147">
-        <v>0.0079</v>
+        <v>0.0085</v>
       </c>
     </row>
     <row r="148">
       <c t="n" r="A148">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c t="n" r="B148">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c t="n" r="C148">
-        <v>0.026</v>
+        <v>0.0195</v>
       </c>
     </row>
     <row r="149">
       <c t="n" r="A149">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c t="n" r="B149">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c t="n" r="C149">
-        <v>0.0046</v>
+        <v>0.0232</v>
       </c>
     </row>
     <row r="150">
       <c t="n" r="A150">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c t="n" r="B150">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c t="n" r="C150">
-        <v>0.0282</v>
+        <v>0.0171</v>
       </c>
     </row>
     <row r="151">
       <c t="n" r="A151">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c t="n" r="B151">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c t="n" r="C151">
-        <v>0.0147</v>
+        <v>0.0052</v>
       </c>
     </row>
     <row r="152">
       <c t="n" r="A152">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c t="n" r="B152">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c t="n" r="C152">
-        <v>0.0322</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="153">
       <c t="n" r="A153">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c t="n" r="B153">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c t="n" r="C153">
-        <v>0.022</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="154">
       <c t="n" r="A154">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c t="n" r="B154">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c t="n" r="C154">
-        <v>0.0468</v>
+        <v>0.0244</v>
       </c>
     </row>
     <row r="155">
       <c t="n" r="A155">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c t="n" r="B155">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c t="n" r="C155">
-        <v>0.0078</v>
+        <v>0.0085</v>
       </c>
     </row>
     <row r="156">
       <c t="n" r="A156">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c t="n" r="B156">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c t="n" r="C156">
-        <v>0.0017</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="157">
       <c t="n" r="A157">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c t="n" r="B157">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c t="n" r="C157">
-        <v>0.0113</v>
+        <v>0.0284</v>
       </c>
     </row>
     <row r="158">
       <c t="n" r="A158">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c t="n" r="B158">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c t="n" r="C158">
-        <v>0.0091</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="159">
       <c t="n" r="A159">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c t="n" r="B159">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c t="n" r="C159">
-        <v>0.0085</v>
+        <v>0.0137</v>
       </c>
     </row>
     <row r="160">
       <c t="n" r="A160">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c t="n" r="B160">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c t="n" r="C160">
-        <v>0.0109</v>
+        <v>0.0115</v>
       </c>
     </row>
     <row r="161">
       <c t="n" r="A161">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c t="n" r="B161">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c t="n" r="C161">
-        <v>0.017</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="162">
       <c t="n" r="A162">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c t="n" r="B162">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c t="n" r="C162">
-        <v>0.0044</v>
+        <v>0.0074</v>
       </c>
     </row>
     <row r="163">
       <c t="n" r="A163">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c t="n" r="B163">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c t="n" r="C163">
-        <v>0.001</v>
+        <v>0.0052</v>
       </c>
     </row>
     <row r="164">
       <c t="n" r="A164">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c t="n" r="B164">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="n" r="C164">
-        <v>0.0076</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="165">
       <c t="n" r="A165">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="n" r="B165">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c t="n" r="C165">
-        <v>0.0079</v>
+        <v>0.0124</v>
       </c>
     </row>
     <row r="166">
       <c t="n" r="A166">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c t="n" r="B166">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="n" r="C166">
-        <v>0.0013</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="167">
       <c t="n" r="A167">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="n" r="B167">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c t="n" r="C167">
-        <v>0.0002</v>
+        <v>0.0037</v>
       </c>
     </row>
     <row r="168">
       <c t="n" r="A168">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c t="n" r="B168">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c t="n" r="C168">
-        <v>0.0321</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="169">
       <c t="n" r="A169">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c t="n" r="B169">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c t="n" r="C169">
-        <v>0.0127</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="170">
       <c t="n" r="A170">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c t="n" r="B170">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c t="n" r="C170">
-        <v>0.0061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c t="n" r="A171">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c t="n" r="B171">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="n" r="C171">
-        <v>0.0332</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="172">
       <c t="n" r="A172">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="n" r="B172">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c t="n" r="C172">
-        <v>0.0202</v>
+        <v>0.0162</v>
       </c>
     </row>
     <row r="173">
       <c t="n" r="A173">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c t="n" r="B173">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c t="n" r="C173">
-        <v>0.0264</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="174">
       <c t="n" r="A174">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c t="n" r="B174">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c t="n" r="C174">
-        <v>0.0237</v>
+        <v>0.0052</v>
       </c>
     </row>
     <row r="175">
       <c t="n" r="A175">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c t="n" r="B175">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c t="n" r="C175">
-        <v>0.0141</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="176">
       <c t="n" r="A176">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c t="n" r="B176">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c t="n" r="C176">
-        <v>0.0067</v>
+        <v>0.0332</v>
       </c>
     </row>
     <row r="177">
       <c t="n" r="A177">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c t="n" r="B177">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c t="n" r="C177">
-        <v>0.0239</v>
+        <v>0.0202</v>
       </c>
     </row>
     <row r="178">
       <c t="n" r="A178">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c t="n" r="B178">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c t="n" r="C178">
-        <v>0.006</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="179">
       <c t="n" r="A179">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c t="n" r="B179">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c t="n" r="C179">
-        <v>0</v>
+        <v>0.0161</v>
       </c>
     </row>
     <row r="180">
       <c t="n" r="A180">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c t="n" r="B180">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c t="n" r="C180">
-        <v>0.0106</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="181">
       <c t="n" r="A181">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c t="n" r="B181">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c t="n" r="C181">
-        <v>0.0017</v>
+        <v>0.0257</v>
       </c>
     </row>
     <row r="182">
       <c t="n" r="A182">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c t="n" r="B182">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c t="n" r="C182">
-        <v>0.0068</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="183">
       <c t="n" r="A183">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c t="n" r="B183">
-        <v>193</v>
+        <v>60</v>
       </c>
       <c t="n" r="C183">
-        <v>0.0075</v>
+        <v>0.0074</v>
       </c>
     </row>
     <row r="184">
       <c t="n" r="A184">
-        <v>193</v>
+        <v>60</v>
       </c>
       <c t="n" r="B184">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c t="n" r="C184">
-        <v>0.0018</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="185">
       <c t="n" r="A185">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c t="n" r="B185">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c t="n" r="C185">
-        <v>0.0168</v>
+        <v>0.0145</v>
       </c>
     </row>
     <row r="186">
       <c t="n" r="A186">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c t="n" r="B186">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c t="n" r="C186">
-        <v>0.0135</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="187">
       <c t="n" r="A187">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c t="n" r="B187">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c t="n" r="C187">
-        <v>0.0115</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="188">
       <c t="n" r="A188">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c t="n" r="B188">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c t="n" r="C188">
-        <v>0.0031</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="189">
       <c t="n" r="A189">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c t="n" r="B189">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c t="n" r="C189">
-        <v>0.0074</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="190">
       <c t="n" r="A190">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c t="n" r="B190">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c t="n" r="C190">
-        <v>0.0052</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="191">
       <c t="n" r="A191">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c t="n" r="B191">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c t="n" r="C191">
-        <v>0.0165</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="192">
       <c t="n" r="A192">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c t="n" r="B192">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c t="n" r="C192">
-        <v>0.0158</v>
+        <v>0.0259</v>
       </c>
     </row>
     <row r="193">
       <c t="n" r="A193">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c t="n" r="B193">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c t="n" r="C193">
-        <v>0.002</v>
+        <v>0.0178</v>
       </c>
     </row>
     <row r="194">
       <c t="n" r="A194">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c t="n" r="B194">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c t="n" r="C194">
-        <v>0.01</v>
+        <v>0.0078</v>
       </c>
     </row>
     <row r="195">
       <c t="n" r="A195">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c t="n" r="B195">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c t="n" r="C195">
-        <v>0.0291</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="196">
       <c t="n" r="A196">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c t="n" r="B196">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c t="n" r="C196">
-        <v>0.0172</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="197">
       <c t="n" r="A197">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c t="n" r="B197">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c t="n" r="C197">
-        <v>0.0402</v>
+        <v>0.0036</v>
       </c>
     </row>
     <row r="198">
       <c t="n" r="A198">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c t="n" r="B198">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c t="n" r="C198">
-        <v>0.0077</v>
+        <v>0.0036</v>
       </c>
     </row>
     <row r="199">
       <c t="n" r="A199">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c t="n" r="B199">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c t="n" r="C199">
-        <v>0.0035</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="200">
       <c t="n" r="A200">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c t="n" r="B200">
         <v>49</v>
       </c>
       <c t="n" r="C200">
-        <v>0.0197</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="201">
@@ -3297,7 +3297,7 @@
     </row>
     <row r="202">
       <c t="n" r="C202" s="2">
-        <v>2.7565</v>
+        <v>2.2327</v>
       </c>
     </row>
   </sheetData>
